--- a/Translator/excel/English_flattened.xlsx
+++ b/Translator/excel/English_flattened.xlsx
@@ -11005,26 +11005,26 @@
     <t>adjust the beat grid. 'adjust_cbg +2' moves the start bar from 4:4. 'adjust_cbg +10%' moves the actual bars.</t>
   </si>
   <si>
-    <t>Assign a specific controller to this deck.
-      'deck 1 assign_controller "CDJ400" 2' assigns the second CDJ400 to deck 1
-      Or in a controller mapping 'deck 1 assign_controller' will assign the controller the action was executed from to deck 1.</t>
+    <t>Assign a specific controller to this deck. 
+'deck 1 assign_controller "CDJ400" 2' assigns the second CDJ400 to deck 1
+Or in a controller mapping 'deck 1 assign_controller' will assign the controller the action was executed from to deck 1.</t>
   </si>
   <si>
     <t>Assign the controller related to this controller to the deck, but leave this controller untouched (related has 1 layer, main has 4)</t>
   </si>
   <si>
     <t>When pressed, the bpm of the song is gradually moved to the bpm of the other deck while keeping both songs at the same bpm
-      When smartPlay or autoBPMMatch are on, it will move to the bpm of the other deck at normal speed
-      When using parameter 'source_original', 'target_original' or 'target_current' you can force which bpm it will transition to</t>
+When smartPlay or autoBPMMatch are on, it will move to the bpm of the other deck at normal speed
+When using parameter 'source_original', 'target_original' or 'target_current' you can force which bpm it will transition to</t>
   </si>
   <si>
     <t>Enable/Disable certain features of the auto_bpm_transition.
-      First parameter can be 'length', 'loop', 'stems', 'master_tempo', 'autostart'
-      When selecting stems to disable, use 'auto_bpm_transition_options stems vocal' for example</t>
+First parameter can be 'length', 'loop', 'stems', 'master_tempo', 'autostart'
+When selecting stems to disable, use 'auto_bpm_transition_options stems vocal' for example</t>
   </si>
   <si>
     <t>Automatically crossfade to the other deck. You can specify the duration of the crossfade in ms: 'auto_crossfade 2000ms'
-      Assigned to a slider, or specifying a specific position, it will move the crossfader slowly to that position: 'auto_crossfade 50%' or 'auto_crossfade 1000ms 50%'</t>
+Assigned to a slider, or specifying a specific position, it will move the crossfader slowly to that position: 'auto_crossfade 50%' or 'auto_crossfade 1000ms 50%'</t>
   </si>
   <si>
     <t>set the auto_cue mode: "off", "on", "always".</t>
@@ -11049,7 +11049,7 @@
   </si>
   <si>
     <t>Add the songs selected in the browser to the automix playlist right after the song currently playing
-      If a song in the automix list is selected and automix is active, move it after the currently playing song</t>
+If a song in the automix list is selected and automix is active, move it after the currently playing song</t>
   </si>
   <si>
     <t>Enable or disable automix using both decks</t>
@@ -11059,8 +11059,8 @@
   </si>
   <si>
     <t>When the automix editor is opened, move the selected track's position
-      automix_editor_movetrack 'current' +10
-      Also accepts 'next' or 'previous' to move the next or previous track. When the number is not given it can be mapped to rotary knobs or jog wheels</t>
+automix_editor_movetrack 'current' +10
+Also accepts 'next' or 'previous' to move the next or previous track. When the number is not given it can be mapped to rotary knobs or jog wheels</t>
   </si>
   <si>
     <t>When automix is active, skip the current song and mix to the next one</t>
@@ -11070,14 +11070,14 @@
   </si>
   <si>
     <t>Alternatively jumps one beat forward and backward
-      'beat_juggle 0.5' will jump 1/2 beat forward or backward</t>
+'beat_juggle 0.5' will jump 1/2 beat forward or backward</t>
   </si>
   <si>
     <t>tap on a few beats to set a new bpm for the song if the application didn't got it right on the first time.</t>
   </si>
   <si>
     <t>Jump a certain number of beats as set by beatjump_select
-      'beatjump +1' to jump forward, or 'beatjump -1' to jump backwards</t>
+'beatjump +1' to jump forward, or 'beatjump -1' to jump backwards</t>
   </si>
   <si>
     <t>execute 'goto +x' where x depends on the pad number and the beatjump_page</t>
@@ -11087,21 +11087,21 @@
   </si>
   <si>
     <t>Select the number of beats the beatjump action will jump
-      'beatjump_select 4' to set beatjump to 4 beats
-      'beatjump_select +1' to set the next higher beat size
-      'beatjump_select 50%' to halve the current beat size
-      'beatjump_select 200%' to double the current beat size</t>
+'beatjump_select 4' to set beatjump to 4 beats
+'beatjump_select +1' to set the next higher beat size
+'beatjump_select 50%' to halve the current beat size
+'beatjump_select 200%' to double the current beat size</t>
   </si>
   <si>
     <t>When beatlock is activated, the songs are kept synchronized, even when moving the pitch, scratching, etc...</t>
   </si>
   <si>
     <t>turn on and off the LED, once per second. You can specify the speed: 'blink 1000ms'
-      Speed can also be specified in number of beats: 'blink 1bt'. The time blinking can also be specified: 'blink 1bt 25%'</t>
+Speed can also be specified in number of beats: 'blink 1bt'. The time blinking can also be specified: 'blink 1bt 25%'</t>
   </si>
   <si>
     <t>blinking fast when less than 10 seconds remaining, blinking slow when less than 30 seconds remaining, off otherwise
-      'blink_play on' is similar, but is on when the song is paused, and only off if no song is loaded or the loaded song has an error</t>
+'blink_play on' is similar, but is on when the song is paused, and only off if no song is loaded or the loaded song has an error</t>
   </si>
   <si>
     <t>set booth volume</t>
@@ -11111,19 +11111,19 @@
   </si>
   <si>
     <t>start or stop to broadcast
-      Optionally add parameter to specify "video", "direct", "server" or "podcast". Without parameters it will use the last used mode.</t>
+Optionally add parameter to specify "video", "direct", "server" or "podcast". Without parameters it will use the last used mode.</t>
   </si>
   <si>
     <t>set or get the broadcast message.</t>
   </si>
   <si>
     <t>reanalyze the current file selected in the browser
-      use 'browsed_file_analyze multi' to do a scan for multiple bpms</t>
+use 'browsed_file_analyze multi' to do a scan for multiple bpms</t>
   </si>
   <si>
     <t>set the color of the file currently selected in the browser.
-      Example: browsed_file_color "red"
-      Use browsed_file_color "reset" to clear the color and set the color back to default</t>
+Example: browsed_file_color "red"
+Use browsed_file_color "reset" to clear the color and set the color back to default</t>
   </si>
   <si>
     <t>open the Tag Editor for the browsed song.</t>
@@ -11157,23 +11157,23 @@
   </si>
   <si>
     <t>Lookup recommendations based on the items currently selected in the browser
-      Use 'browser_geniusdj playing' to use the currently playing track instead of the track selected in the browser</t>
-  </si>
-  <si>
-    <t>'browser_gotofolder' goes to the folder containing the current file.
-      'browser_gotofolder "/my_path/my_folder"' goes to the specified folder.
-      'browser_gotofolder 4' goes to the fourth virtual/favorite folder.</t>
+Use 'browser_geniusdj playing' to use the currently playing track instead of the track selected in the browser</t>
+  </si>
+  <si>
+    <t>'browser_gotofolder' goes to the folder containing the current file. 
+'browser_gotofolder "/my_path/my_folder"' goes to the specified folder. 
+'browser_gotofolder 4' goes to the fourth virtual/favorite folder.</t>
   </si>
   <si>
     <t>return true when the browser was used by a controller in the past 6 seconds</t>
   </si>
   <si>
     <t>browser_move +1 : Moves the currently selected song in a playlist down
-      browser_move 'top' or browser_move 'bottom' : Moves the selected song to the top or the bottom of the list</t>
+browser_move 'top' or browser_move 'bottom' : Moves the selected song to the top or the bottom of the list</t>
   </si>
   <si>
     <t>Expand selected folder in browser when closed, or close folder when opened.
-      You can also use 'browser_open_folder off' to always close the folder, or 'browser_open_folder on' to open a folder</t>
+You can also use 'browser_open_folder off' to always close the folder, or 'browser_open_folder on' to open a folder</t>
   </si>
   <si>
     <t>show the context menu about the browser filters, root folders, database, etc</t>
@@ -11186,25 +11186,25 @@
   </si>
   <si>
     <t>scroll through the songs or folders.
-      'browser_scroll +1' or 'browser_scroll -1' to scroll one line, or "browser_scroll 'top'", "browser_scroll 'bottom'" to scroll to the beginning or end</t>
+'browser_scroll +1' or 'browser_scroll -1' to scroll one line, or "browser_scroll 'top'", "browser_scroll 'bottom'" to scroll to the beginning or end</t>
   </si>
   <si>
     <t>'browser_shortcut': assign the current folder as a new shortcut\n'browser_shortcut X': go to the folder assigned to the Xth shortcut</t>
   </si>
   <si>
     <t>Sort the browser files on the specified column: 'browser_sort "artist"', 'browser_sort "lastplay"',...
-      To sort in descending order, add a - in front of the column name: 'browser_sort "-bpm"'
-      To explicitly sort in ascending order, add a + in front of the column name: 'browser_sort "+bpm"'
-      To reset the sort order of a playlist to it's original order, use 'browser_sort "Original Sort Order"'</t>
+To sort in descending order, add a - in front of the column name: 'browser_sort "-bpm"'
+To explicitly sort in ascending order, add a + in front of the column name: 'browser_sort "+bpm"'
+To reset the sort order of a playlist to it's original order, use 'browser_sort "Original Sort Order"'</t>
   </si>
   <si>
     <t>Change the active browser zone. "browser_window 'folders'", "browser_window 'songs'", "browser_window 'sideview'", or "browser_window 'automix'", "browser_window 'sidelist'", "browser_window 'sampler'"
-      Cycle through available browser zones. "browser_window +1", "browser_window -1"
-      Cycle through specified zones. Example "browser_window 'folders,songs'"</t>
+Cycle through available browser zones. "browser_window +1", "browser_window -1"
+Cycle through specified zones. Example "browser_window 'folders,songs'"</t>
   </si>
   <si>
     <t>returns true if virtualdj can be sandboxed.
-      sandbox cannot be activated while you have effects or samples active, or video, or if you're scratching, or if you have more than one deck playing with the volume up.</t>
+sandbox cannot be activated while you have effects or samples active, or video, or if you're scratching, or if you have more than one deck playing with the volume up.</t>
   </si>
   <si>
     <t>clear the search string</t>
@@ -11220,34 +11220,34 @@
   </si>
   <si>
     <t>color "red"
-      color "#C08040"
-      color 0.8 0.5 0.25
-      color 75% "red" (returns a dimmed red)
-      color 0.66 (returns a gray)</t>
+color "#C08040"
+color 0.8 0.5 0.25
+color 75% "red" (returns a dimmed red)
+color 0.66 (returns a gray)</t>
   </si>
   <si>
     <t>Mix two colors based on an action in the third parameter
-      color_mix white red `get_limiter`</t>
+color_mix white red `get_limiter`</t>
   </si>
   <si>
     <t>color fx are prefader (required for some controllers)</t>
   </si>
   <si>
     <t>Return the specified value
-      Example: 'get constant 75%' always returns 75%</t>
+Example: 'get constant 75%' always returns 75%</t>
   </si>
   <si>
     <t>Assign a mapping to a controller
-      'controller_mapping "My Mapping"' assigns the mapping 'My Mapping' to the controller the command was executed on
-      'controller_mapping "CDJ400" "My Mapping"' assigns the mapping 'My Mapping' to all CDJ400s
-      'controller_mapping "CDJ400" "My Mapping" 2' assigns the mapping 'My Mapping' to the second CDJ400</t>
+'controller_mapping "My Mapping"' assigns the mapping 'My Mapping' to the controller the command was executed on
+'controller_mapping "CDJ400" "My Mapping"' assigns the mapping 'My Mapping' to all CDJ400s
+'controller_mapping "CDJ400" "My Mapping" 2' assigns the mapping 'My Mapping' to the second CDJ400</t>
   </si>
   <si>
     <t>variable that is unique to each controller. You can add # in front of the variable name to make it both deck and controller-dependent</t>
   </si>
   <si>
     <t>Count down to a specific date or time. Example: countdown '2025/01/01 00:00'
-      Second parameter can be used to optionally format the return value. Use %full, %HH, %MM, %SS, %DD</t>
+Second parameter can be used to optionally format the return value. Use %full, %HH, %MM, %SS, %DD</t>
   </si>
   <si>
     <t>you could always use this action if you're feeling bored or depressed</t>
@@ -11278,29 +11278,29 @@
   </si>
   <si>
     <t>query or set the color of a cue point
-      Query example: cue_color 1
-      Set example: cue_color 1 'yellow'</t>
+Query example: cue_color 1
+Set example: cue_color 1 'yellow'</t>
   </si>
   <si>
     <t>count down to the next cue (or end) in beats
-      use 'cue_countdown color' or 'cue_countdown name' to get the name or color of the next cue point</t>
+use 'cue_countdown color' or 'cue_countdown name' to get the name or color of the next cue point</t>
   </si>
   <si>
     <t>count up or down to the nearest cue point in beats
-      use 'cue_counter color' or 'cue_counter name' to get the name or color of the nearest cue point</t>
+use 'cue_counter color' or 'cue_counter name' to get the name or color of the nearest cue point</t>
   </si>
   <si>
     <t>count up from the last cue point (or start) in beats
-      use 'cue_countup color' or 'cue_countup name' to get the name or color of the last cue point</t>
+use 'cue_countup color' or 'cue_countup name' to get the name or color of the last cue point</t>
   </si>
   <si>
     <t>if playing, rewind to the last cue point, and start again on release. if paused, set the current position as cue point.</t>
   </si>
   <si>
     <t>Show information about a cue point based on the cueDisplay config option.
-      Example: 'cue_display 1'
-      Can also be used to modify the cueDisplay option by using +1 or -1 as parameter: 'cue_display +1'
-      The cueDisplay option can also be set by name: 'cue_display name'</t>
+Example: 'cue_display 1'
+Can also be used to modify the cueDisplay option by using +1 or -1 as parameter: 'cue_display +1'
+The cueDisplay option can also be set by name: 'cue_display name'</t>
   </si>
   <si>
     <t>Jump to a cue and stay in a loop. Use cue_loop_hold to select if loop is temporary, or stays until pressed again. When the cueLoopAutoSync option is enabled, jumping to the cue is beat synchronized</t>
@@ -11316,9 +11316,9 @@
   </si>
   <si>
     <t>"cue_pos 1" returns the position of cue point #1 as a percentage
-      "cue_pos 1 msec", "cue_pos 1 sec", "cue_pos 1 min" returns the position of cue point #1, msec, sec and min parts
-      "cue_pos 1 mseconly" returns the position of cue point #1 in milliseconds
-      "cue_pos 1 beats" returns the position of the cue point in number of beats from first beat</t>
+"cue_pos 1 msec", "cue_pos 1 sec", "cue_pos 1 min" returns the position of cue point #1, msec, sec and min parts
+"cue_pos 1 mseconly" returns the position of cue point #1 in milliseconds
+"cue_pos 1 beats" returns the position of the cue point in number of beats from first beat</t>
   </si>
   <si>
     <t>Select the nth cue point as default cue point for cue, hotcue, etc.. actions. Does not change position to the selected cue point.</t>
@@ -11352,7 +11352,7 @@
   </si>
   <si>
     <t>Assign a different action for a button or slider of a device depending on which side of the device it is on: "device_side 'left' ? action_for_left : action_for_right"
-      For more than 2-deck controllers, you can use "device_side 1 ? action1 : device_side 2 ? action2 ? device_side 3 ? action3 : etc..."</t>
+For more than 2-deck controllers, you can use "device_side 1 ? action1 : device_side 2 ? action2 ? device_side 3 ? action3 : etc..."</t>
   </si>
   <si>
     <t>equivalent of "constant 0.1"</t>
@@ -11371,8 +11371,8 @@
   </si>
   <si>
     <t>reverse the playback direction while dump is active, then when deactivated, start again forward from where the song should have been if it had been playing forward during the dump.
-      when quantize_all is active, dump will be quantized to match the beats. This can also be forced by using 'dump quantized' or 'dump notquantized'
-      to dump only while the key is pressed, use 'dump while_pressed'</t>
+when quantize_all is active, dump will be quantized to match the beats. This can also be forced by using 'dump quantized' or 'dump notquantized'
+to dump only while the key is pressed, use 'dump while_pressed'</t>
   </si>
   <si>
     <t>open the BPM Editor to edit the bpm and beat grid</t>
@@ -11406,23 +11406,23 @@
   </si>
   <si>
     <t>For controllers with a deck selection switch for effects, select the deck effects will be activated on using effect_arm_active
-      Use 'effect_arm_deck single' to allow only one deck at a time to be armed
-      Use 'effect_arm_deck master' to select master instead of a deck. 'sampler', 'mic', and 'aux' also supported</t>
+Use 'effect_arm_deck single' to allow only one deck at a time to be armed
+Use 'effect_arm_deck master' to select master instead of a deck. 'sampler', 'mic', and 'aux' also supported</t>
   </si>
   <si>
     <t>For controllers with a effect selection switch, select the effect that will be activated using effect_arm_active</t>
   </si>
   <si>
     <t>Move the effect parameter of the effect selected using effect_arm_select on the deck selected using effect_arm_deck
-      Use "effect_arm_slider 1 2" to move the second slider of the first slot</t>
+Use "effect_arm_slider 1 2" to move the second slider of the first slot</t>
   </si>
   <si>
     <t>Get the effect parameter label of the effect selected using effect_arm_select on the deck selected using effect_arm_deck.
-      Use 'effect_arm_slider_label 1 short' to get the short label</t>
+Use 'effect_arm_slider_label 1 short' to get the short label</t>
   </si>
   <si>
     <t>Get the effect parameter name of the effect selected using effect_arm_select on the deck selected using effect_arm_deck.
-      Use 'effect_arm_slider_name 1 short' to get the short label</t>
+Use 'effect_arm_slider_name 1 short' to get the short label</t>
   </si>
   <si>
     <t>Get the effect parameter text of the effect selected using effect_arm_select on the deck selected using effect_arm_deck.</t>
@@ -11432,7 +11432,7 @@
   </si>
   <si>
     <t>Select/unselect a stem to be used with "stems" as slot for effect_ actions
-      Accepted stem names are Vocal, HiHat, Bass, Instru, Kick. They can be combined using "+"</t>
+Accepted stem names are Vocal, HiHat, Bass, Instru, Kick. They can be combined using "+"</t>
   </si>
   <si>
     <t>load the effects in deck fx slots 1 to 6 from the bank specified by the parameter</t>
@@ -11454,7 +11454,7 @@
   </si>
   <si>
     <t>'effect_button 1 2' button 2 on slot 1
-      'effect_button 2' button 2 on slot 1</t>
+'effect_button 2' button 2 on slot 1</t>
   </si>
   <si>
     <t>Load into this deck all 3 slots from the current left or right deck</t>
@@ -11470,24 +11470,24 @@
   </si>
   <si>
     <t>'deck 1 effect_disable_all' Disables all effects on deck 1
-      'deck master effect_disable_all' Disables all master effects
-      'effect_disable_all sampler' Disables all sampler effects. 'aux' or 'mic' can be used for mic or aux effects</t>
+'deck master effect_disable_all' Disables all master effects
+'effect_disable_all sampler' Disables all sampler effects. 'aux' or 'mic' can be used for mic or aux effects</t>
   </si>
   <si>
     <t>dock/undock this effect's control window</t>
   </si>
   <si>
     <t>Select which source to apply fx to for a specific send/return channel in case there are more than one
-      'deck 1 effect_fxsendreturndeck_multi master' : Apply master fx on the first fx send/return pair
-      'deck 2 effect_fxsendreturndeck_multi mic' : Apply mic fx on the second fx send/return pair
-      'deck 2 effect_fxsendreturndeck_multi 4' : Apply deck 4 fx on the second fx send/return pair</t>
+'deck 1 effect_fxsendreturndeck_multi master' : Apply master fx on the first fx send/return pair
+'deck 2 effect_fxsendreturndeck_multi mic' : Apply mic fx on the second fx send/return pair
+'deck 2 effect_fxsendreturndeck_multi 4' : Apply deck 4 fx on the second fx send/return pair</t>
   </si>
   <si>
     <t>'effect_has_slider 1 2 on' -&gt; returns true if there is a second button on slot 1</t>
   </si>
   <si>
     <t>effect_has_slider 1 2 on -&gt; returns true if there is a second slider on slot 1
-      effect_has_slider 1 -&gt; returns true if there is a first slider on slot 0</t>
+effect_has_slider 1 -&gt; returns true if there is a first slider on slot 0</t>
   </si>
   <si>
     <t>Associate an effect with the crossfader</t>
@@ -11506,23 +11506,23 @@
   </si>
   <si>
     <t>effect_select 2 "echo" -&gt; select effect echo in slot 2
-      effect_select 1 -1 -&gt; select previous effect in slot 1
-      effect_select +1 -&gt; select next effect in slot 1
-      effect_select -&gt; show popup window for slot 1
-      effect_select 1 -&gt; show popup window for slot 1
-      effect_select 1 0.2 -&gt; select the 2/10th effect from the list in slot 1
-      effect_select "audioonlyvisualisation" -&gt; select visualisation used when song has no video
-      effect_select deactivates the previous plugin in the specified slot</t>
+effect_select 1 -1 -&gt; select previous effect in slot 1
+effect_select +1 -&gt; select next effect in slot 1
+effect_select -&gt; show popup window for slot 1
+effect_select 1 -&gt; show popup window for slot 1
+effect_select 1 0.2 -&gt; select the 2/10th effect from the list in slot 1
+effect_select "audioonlyvisualisation" -&gt; select visualisation used when song has no video
+effect_select deactivates the previous plugin in the specified slot</t>
   </si>
   <si>
     <t>effect_select_multi 2 "echo" -&gt; select effect echo in slot 2
-      effect_select_multi 1 -1 -&gt; select previous effect in slot 1
-      effect_select_multi +1 -&gt; select next effect in slot 1
-      effect_select_multi -&gt; show popup window for slot 1
-      effect_select_multi 1 -&gt; show popup window for slot 1
-      effect_select_multi 1 0.2 -&gt; select the 2/10th effect from the list in slot 1
-      effect_select_multi "video" -&gt; select effect in the video effect slot
-      effect_select_multi does not deactivate the previous plugin in the specified slot</t>
+effect_select_multi 1 -1 -&gt; select previous effect in slot 1
+effect_select_multi +1 -&gt; select next effect in slot 1
+effect_select_multi -&gt; show popup window for slot 1
+effect_select_multi 1 -&gt; show popup window for slot 1
+effect_select_multi 1 0.2 -&gt; select the 2/10th effect from the list in slot 1
+effect_select_multi "video" -&gt; select effect in the video effect slot
+effect_select_multi does not deactivate the previous plugin in the specified slot</t>
   </si>
   <si>
     <t>Same as effect_select, but shows the selection drop-down temporarily for easier selection</t>
@@ -11535,8 +11535,8 @@
   </si>
   <si>
     <t>Move the n-th slider on the given effect
-      "effect_slider 1 2 50%" : Set slider id 2 on slot 1 to 50%
-      "effect_slider 1 0%" : set slider id 1 on slot 1 to 0%</t>
+"effect_slider 1 2 50%" : Set slider id 2 on slot 1 to 50%
+"effect_slider 1 0%" : set slider id 1 on slot 1 to 0%</t>
   </si>
   <si>
     <t>move a slider and activate the effect as long as the mouse is down</t>
@@ -11546,12 +11546,12 @@
   </si>
   <si>
     <t>Move the n-th slider on the given effect, excluding a length slider if present
-      "effect_slider_skip_length 1 2 50%" : Set slider 2 (excluding length) on slot 1 to 50%
-      "effect_slider_skip_length 1 0%" : set slider 1 (excluding length) on slot 1 to 0%</t>
+"effect_slider_skip_length 1 2 50%" : Set slider 2 (excluding length) on slot 1 to 50%
+"effect_slider_skip_length 1 0%" : set slider 1 (excluding length) on slot 1 to 0%</t>
   </si>
   <si>
     <t>Apply effects only to the selected stems. 'effect_stems vocal on'
-      Stems are Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal or MeloRhythm</t>
+Stems are Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal or MeloRhythm</t>
   </si>
   <si>
     <t>Get the color for the effect_stems button</t>
@@ -11600,9 +11600,9 @@
   </si>
   <si>
     <t>Select the behavior of the EQs knobs (frequency, modernEQ or EZRemix)
-      Can be used to switch between Frequency and your preferred stems mode using 'eq_mode +1'
-      To change the eq mode only for a single deck, use "eq_mode +1 deck" (or "deck 1 eq_mode +1 deck" to specify deck 1 in your script)
-      To select a specific behavior, you can use "eq_mode frequency", "eq_mode modernEQ", "eq_mode ezRemix" or "eq_mode stems"</t>
+Can be used to switch between Frequency and your preferred stems mode using 'eq_mode +1'
+To change the eq mode only for a single deck, use "eq_mode +1 deck" (or "deck 1 eq_mode +1 deck" to specify deck 1 in your script)
+To select a specific behavior, you can use "eq_mode frequency", "eq_mode modernEQ", "eq_mode ezRemix" or "eq_mode stems"</t>
   </si>
   <si>
     <t>reset the equalizer.</t>
@@ -11615,7 +11615,7 @@
   </si>
   <si>
     <t>'loop &amp; fadeout 10000ms 3000ms' will return 100% when loop is on, and fade out to 0% after 10 seconds in 3 seconds when loop turns off
-      Alternatively, the action can be entered as the third parameter in backticks: 'fadeout 10000ms 3000ms `loop`'</t>
+Alternatively, the action can be entered as the third parameter in backticks: 'fadeout 10000ms 3000ms `loop`'</t>
   </si>
   <si>
     <t>enable or disable fader start</t>
@@ -11649,7 +11649,7 @@
   </si>
   <si>
     <t>Get number of files currently shown in browser
-      You can also use 'automix', 'sideview', 'karaoke' or 'sidelist' as parameter to get the count in other lists. "file_count automix"</t>
+You can also use 'automix', 'sideview', 'karaoke' or 'sidelist' as parameter to get the count in other lists. "file_count automix"</t>
   </si>
   <si>
     <t>Open the Tag Editor for the specified or loaded song.</t>
@@ -11662,7 +11662,7 @@
   </si>
   <si>
     <t>get the text to display under the filter knob
-      (use filter_label "clean" to always get the value, and filter_label "name" to always get the name)</t>
+(use filter_label "clean" to always get the value, and filter_label "name" to always get the name)</t>
   </si>
   <si>
     <t>change the resonance of the filter</t>
@@ -11714,7 +11714,7 @@
   </si>
   <si>
     <t>Returns the latest request from ask the dj (requires askTheDJMonitoring setting to be on always)
-      Use 'get_askthedj 2' to get the second latest request, etc.</t>
+Use 'get_askthedj 2' to get the second latest request, etc.</t>
   </si>
   <si>
     <t>Returns the number of unread Ask The DJ requests (requires askTheDJMonitoring setting to be on always)</t>
@@ -11727,7 +11727,7 @@
   </si>
   <si>
     <t>get a property from the next song in automix: "get_automix_song 'title'"
-      you can also get properties from songs further down: "get_automix_song 'title' 2"</t>
+you can also get properties from songs further down: "get_automix_song 'title' 2"</t>
   </si>
   <si>
     <t>returns the current bar number (1 bar = 4 beats)</t>
@@ -11746,17 +11746,17 @@
   </si>
   <si>
     <t>"get_beat_num" returns a value between 1 and 4 indicating the beat in the measure
-      "get_beat_num 1 4" returns true when the first beat of the measure is currently playing
-      "get_beat_num 1" returns true when the first beat of a 4-beat measure is currently playing (works from 1 to 4)
-      "get_beat_num 16" returns a percentage indicating the beat position in a 16-beat phrase (works with any phrase number larger than 4)</t>
+"get_beat_num 1 4" returns true when the first beat of the measure is currently playing
+"get_beat_num 1" returns true when the first beat of a 4-beat measure is currently playing (works from 1 to 4)
+"get_beat_num 16" returns a percentage indicating the beat position in a 16-beat phrase (works with any phrase number larger than 4)</t>
   </si>
   <si>
     <t>get the intensity of the beats from both decks at the same time.</t>
   </si>
   <si>
     <t>Get the distance between the beat from this deck and the beat from the active deck
-      50% means the deck are aligned, 0% means this deck is late half a beat, 100% means it is ahead half a beat
-      'get_beatdiff 4' will return the distance percentage between bars instead of beats</t>
+50% means the deck are aligned, 0% means this deck is late half a beat, 100% means it is ahead half a beat
+'get_beatdiff 4' will return the distance percentage between bars instead of beats</t>
   </si>
   <si>
     <t>get the intensity of the beat based on the beatgrid (100% if on the beat, 0% if halfway between to beats).</t>
@@ -11766,14 +11766,14 @@
   </si>
   <si>
     <t>Get the bpm of the song
-      Use 'get_bpm absolute' to get the original bpm of the song (not changing when changing the pitch)</t>
+Use 'get_bpm absolute' to get the original bpm of the song (not changing when changing the pitch)</t>
   </si>
   <si>
     <t>Returns 0.5 when bpm's are synchronized</t>
   </si>
   <si>
     <t>'get_browsed_color 0 red 255' (item, component, default)
-      'get_browsed_color 0 white' (item, default) returns color for selected item. This includes color filters. (For manually selected color only, use 'get_browsed_song color' instead)</t>
+'get_browsed_color 0 white' (item, default) returns color for selected item. This includes color filters. (For manually selected color only, use 'get_browsed_song color' instead)</t>
   </si>
   <si>
     <t>get the filepath of the song currently selected in the browser</t>
@@ -11786,11 +11786,11 @@
   </si>
   <si>
     <t>'get_browsed_folder_selection 1 3' returns true if the first line is the selected line in a browser 3 lines high
-      'get_browsed_folder_selection 3' returns the line number of the selected line in a browser 3 lines high (between 1 and 3)</t>
+'get_browsed_folder_selection 3' returns the line number of the selected line in a browser 3 lines high (between 1 and 3)</t>
   </si>
   <si>
     <t>'get_browsed_selection 1 3' returns true if the first line is the selected line in a browser 3 lines high
-      'get_browsed_selection 3' returns the line number of the selected line in a browser 3 lines high (between 1 and 3)</t>
+'get_browsed_selection 3' returns the line number of the selected line in a browser 3 lines high (between 1 and 3)</t>
   </si>
   <si>
     <t>get a property from the currently browsed file: "get_browsed_song 'title'", "get browsed_song 'playcount'", etc...</t>
@@ -11812,7 +11812,7 @@
   </si>
   <si>
     <t>get the actual volume balance between deck 1 and 2, based on crossfader, levels, and play
-      (use get_crossfader_result "full" to show levels even for paused decks)</t>
+(use get_crossfader_result "full" to show levels even for paused decks)</t>
   </si>
   <si>
     <t>returns the currently active cue, or 0 if no cue point is active</t>
@@ -11825,7 +11825,7 @@
   </si>
   <si>
     <t>return blue or red if the deck is the left deck or right deck (and gray otherwise). Can be used with a darkness modifier: 'get_deck_color 50%'
-      Use 'get_deck_color "absolute"' or 'get_deck_color "absolute" 50%' to get a color based on actual deck rather than left/right (red for deck 1, blue for deck 2, orange for deck 3, green for deck 4)</t>
+Use 'get_deck_color "absolute"' or 'get_deck_color "absolute" 50%' to get a color based on actual deck rather than left/right (red for deck 1, blue for deck 2, orange for deck 3, green for deck 4)</t>
   </si>
   <si>
     <t>get the letter of the deck</t>
@@ -11922,7 +11922,7 @@
   </si>
   <si>
     <t>get the key of the current song, based on keyDisplay option
-      Use get_key "musical" or get_key "harmonic" to get a specific display independent of keyDisplay option</t>
+Use get_key "musical" or get_key "harmonic" to get a specific display independent of keyDisplay option</t>
   </si>
   <si>
     <t>Return color of the current key of the track in the specified deck</t>
@@ -11938,8 +11938,8 @@
   </si>
   <si>
     <t>Get level of signal before master volume. If no deck is specified will get master level
-      Use "get_level 'mic'" for microphone level, or "get_level 'sampler'" for sampler level
-      Use "get_level 'vocal'" for vocal vu meter, other stem names also supported</t>
+Use "get_level 'mic'" for microphone level, or "get_level 'sampler'" for sampler level
+Use "get_level 'vocal'" for vocal vu meter, other stem names also supported</t>
   </si>
   <si>
     <t>Get level of left channel before master volume. If no deck is specified will get master level.</t>
@@ -11964,28 +11964,28 @@
   </si>
   <si>
     <t>'get_loaded_song_color red 255' (component, default color)
-      'get_loaded_song_color white' (default color) returns color for the loaded track. This includes color filters. (For manually selected color only, use 'get_loaded_song color' instead)</t>
+'get_loaded_song_color white' (default color) returns color for the loaded track. This includes color filters. (For manually selected color only, use 'get_loaded_song color' instead)</t>
   </si>
   <si>
     <t>get the number of beats in the current loop or the default loop size if no loop is active</t>
   </si>
   <si>
     <t>Get time (in ms) of the start of the loop
-      Use "get_loop_in_time 1.0" to return the time in seconds instead of milliseconds
-      Use "get_loop_in_time on" to return the loop in time even when no loop is active</t>
+Use "get_loop_in_time 1.0" to return the time in seconds instead of milliseconds
+Use "get_loop_in_time on" to return the loop in time even when no loop is active</t>
   </si>
   <si>
     <t>Get time (in ms) of the end of the loop
-      Use "get_loop_out_time 1.0" to return the time in seconds instead of milliseconds
-      Use "get_loop_out_time on" to return the loop out time even when no loop is active</t>
+Use "get_loop_out_time 1.0" to return the time in seconds instead of milliseconds
+Use "get_loop_out_time on" to return the loop out time even when no loop is active</t>
   </si>
   <si>
     <t>Get info about the upcoming karaoke tracks
-      Example 'get_next_karaoke_song "singer" +1'</t>
+Example 'get_next_karaoke_song "singer" +1'</t>
   </si>
   <si>
     <t>"get_phrase_num" returns a value between 1 and 4 indicating the measure number
-      "get_phrase_num 1" returns true when the first measure of the phrase is currently playing</t>
+"get_phrase_num 1" returns true when the first measure of the phrase is currently playing</t>
   </si>
   <si>
     <t>Get the pitch from -100% to +100%, centered on 0%</t>
@@ -12046,7 +12046,7 @@
   </si>
   <si>
     <t>get additional information about the sample, such as 'get_sample_info 1 fullpath'
-      In addition to the regular column names, 'group' is also supported, and 'length' returns beat values for loops</t>
+In addition to the regular column names, 'group' is also supported, and 'length' returns beat values for loops</t>
   </si>
   <si>
     <t>get the name of the specified sample</t>
@@ -12068,26 +12068,26 @@
   </si>
   <si>
     <t>get information about a saved loop: get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
-      "get_saved_loop 'next' 'name'" can be used to get information about the upcoming saved loop
-      "get_saved_loop 1 'name'" can be used to get information about the first saved loop</t>
+"get_saved_loop 'next' 'name'" can be used to get information about the upcoming saved loop
+"get_saved_loop 1 'name'" can be used to get information about the first saved loop</t>
   </si>
   <si>
     <t>Get the time where the song will be when slip mode is de-activated in milliseconds
-      Alternatively, use get_slip_time "min", get_slip_time "sec" and get_slip_time "msec"</t>
+Alternatively, use get_slip_time "min", get_slip_time "sec" and get_slip_time "msec"</t>
   </si>
   <si>
     <t>Provide analysis about current and coming events in the song. Can be used when writing visualisation plugins.
-      The first parameter is "current" or "next" to get the current or the coming event.
-      The second parameter can be "hasbeats", "volume", "volume_end", "remaining"</t>
+The first parameter is "current" or "next" to get the current or the coming event.
+The second parameter can be "hasbeats", "volume", "volume_end", "remaining"</t>
   </si>
   <si>
     <t>get the length in seconds of the song on the deck</t>
   </si>
   <si>
     <t>get the level of a single spectrum band. 'get_spectrum_band 1'
-      Use 'deck master' in front to get spectrum of the master deck 'deck master get_spectrum_band 1'
-      By default there are 32 bands, to use a smaller number of bands, use 'get_spectrum_band 1 3' to get the first of 3 bands
-      The third parameter can be used to get a spectrum of stems 'get_spectrum_band 1 32 vocals'</t>
+Use 'deck master' in front to get spectrum of the master deck 'deck master get_spectrum_band 1'
+By default there are 32 bands, to use a smaller number of bands, use 'get_spectrum_band 1 3' to get the first of 3 bands
+The third parameter can be used to get a spectrum of stems 'get_spectrum_band 1 32 vocals'</t>
   </si>
   <si>
     <t>get information about background tasks</t>
@@ -12097,21 +12097,21 @@
   </si>
   <si>
     <t>get the elapsed time (or remaining or total depending on "display_time"), in milliseconds.
-      Use 'get time 1000' to get another unit than ms (1000=ms, 25=1/25th of seconds, 44100=frames, etc).
-      Use "elapsed", "remain" or "total" to bypass the setting of display_time. Use "absolute" not to take the pitch into account.
-      On texts, use "short" to hide the decimals. Example: get_time "remain" "short"</t>
+Use 'get time 1000' to get another unit than ms (1000=ms, 25=1/25th of seconds, 44100=frames, etc). 
+Use "elapsed", "remain" or "total" to bypass the setting of display_time. Use "absolute" not to take the pitch into account.
+On texts, use "short" to hide the decimals. Example: get_time "remain" "short"</t>
   </si>
   <si>
     <t>Get the hours of the elapsed time (or remaining or total, depending on "display_time")
-      Use 'get_time_hour "absolute"' if you don't want to take the pitch variations into account
-      You can write 'get_time_hour "elapsed"' or "remain" or "total" to bypass the setting of display_time</t>
+Use 'get_time_hour "absolute"' if you don't want to take the pitch variations into account
+You can write 'get_time_hour "elapsed"' or "remain" or "total" to bypass the setting of display_time</t>
   </si>
   <si>
     <t>get the minutes of the elapsed time (or remaining or total, depending on "display_time"). use 'get time_min "absolute"' if you don't want to take the pitch variations in account. you can write 'get time_min "elapsed"' or "remain" or "total" to bypass the setting of display_time</t>
   </si>
   <si>
     <t>get the 1/100th seconds of the elapsed time (or remaining or total, depending on "display_time")
-      use 'get_time_ms 1000' to get the actual milliseconds</t>
+use 'get_time_ms 1000' to get the actual milliseconds</t>
   </si>
   <si>
     <t>get the MSF frame of the elapsed time (or remaining or total, depending on "display_time").</t>
@@ -12121,7 +12121,7 @@
   </si>
   <si>
     <t>Get the sign (-1 or +1) of the elapsed time (or remaining or total, depending on "display_time")
-      You can write 'get_time_sign "elapsed"' or "remain" or "total" to bypass the setting of display_time</t>
+You can write 'get_time_sign "elapsed"' or "remain" or "total" to bypass the setting of display_time</t>
   </si>
   <si>
     <t>Return title of the track. If remix is empty, the part in brackets in the title is removed (and shown by get_remix_after_title)</t>
@@ -12164,8 +12164,8 @@
   </si>
   <si>
     <t>Get level of signal after master volume. If no deck is specified will get master level.
-      Use "get_vu_meter 'mic'" for microphone level or "get_vu_meter 'sampler'" for sampler level
-      Use "get_level 'vocal'" for vocal vu meter, other stem names also supported</t>
+Use "get_vu_meter 'mic'" for microphone level or "get_vu_meter 'sampler'" for sampler level
+Use "get_level 'vocal'" for vocal vu meter, other stem names also supported</t>
   </si>
   <si>
     <t>Get level of left channel after master volume. If no deck is specified will get master level.</t>
@@ -12193,7 +12193,7 @@
   </si>
   <si>
     <t>Go to the specified cue. Example "goto_cue 1", "goto_cue +1", "goto_cue -1"
-      "goto_cue" will jump to the currently selected/last used cue.</t>
+"goto_cue" will jump to the currently selected/last used cue.</t>
   </si>
   <si>
     <t>automatically goes to the first beat in the song.</t>
@@ -12203,7 +12203,7 @@
   </si>
   <si>
     <t>Jump to the specified mix point ("StartTempo", "EndTempo", "StartCut", "EndCut", "StartFade", "EndFade", "StartSound", "EndSound")
-      Example: goto_mixpoint "StartCut"</t>
+Example: goto_mixpoint "StartCut"</t>
   </si>
   <si>
     <t>go to the start of the song.</t>
@@ -12213,8 +12213,8 @@
   </si>
   <si>
     <t>Perform an encrypted handshake to ensure that this plugin is currently being called by a real VirtualDJ environment.
-      Call this passing any string, decrypt the result using VirtualDJ's handshake public key, and check that it matches what you passed.
-      See the developer documentation on our website for example code.</t>
+Call this passing any string, decrypt the result using VirtualDJ's handshake public key, and check that it matches what you passed.
+See the developer documentation on our website for example code.</t>
   </si>
   <si>
     <t>returns true if the current soundconfig includes a aux input</t>
@@ -12233,8 +12233,8 @@
   </si>
   <si>
     <t>Returns true when track has links to other tracks. On a button can be used to show the linked tracks in the sideview
-      You can also use 'has_linked_tracks browsed' to get the result for the currently browsed track
-      Passing a script that returns a full file path is also possible using 'has_linked_tracks `script`'</t>
+You can also use 'has_linked_tracks browsed' to get the result for the currently browsed track
+Passing a script that returns a full file path is also possible using 'has_linked_tracks `script`'</t>
   </si>
   <si>
     <t>return true when the display has a notch at the top center and the skin is maximized, false otherwise</t>
@@ -12280,7 +12280,7 @@
   </si>
   <si>
     <t>switch leftdeck between deck 1 and deck 3 or rightdeck between deck 2 and deck 4
-      "invert_deck" to swap the calling deck, or "invert_deck 'left'", "invert_deck 'right'" to specifically switch left or right deck</t>
+"invert_deck" to swap the calling deck, or "invert_deck 'left'", "invert_deck 'right'" to specifically switch left or right deck</t>
   </si>
   <si>
     <t>Invert timecode control (for 1 timecode source, switch it through available decks, for 2 timecode sources, from 1 to 3, 2 to 4)</t>
@@ -12332,7 +12332,7 @@
   </si>
   <si>
     <t>Load the folder or playlist selected in the browser in the karaoke list
-      Use "karaoke_load 'append'" to add the selected folder to the karaoke list instead of replacing the existing karaoke</t>
+Use "karaoke_load 'append'" to add the selected folder to the karaoke list instead of replacing the existing karaoke</t>
   </si>
   <si>
     <t>show the contextmenu with the karaoke options</t>
@@ -12357,11 +12357,11 @@
   </si>
   <si>
     <t>change the key of the song, from -6 (half octave down) to +6 (half octave up), allowing not only multiple of semitones.
-      use key_smooth full for full octave up or down</t>
+use key_smooth full for full octave up or down</t>
   </si>
   <si>
     <t>Map to CTRL or ALT. While pressed will show keyboard overlay in browser. Double-press to activate sticky keys.
-      Accepts time to delay showing overlay (keyboard_shortcuts 500ms). In scripts can also be used to turn on or off the overlay manually (keyboard_shortcuts on)</t>
+Accepts time to delay showing overlay (keyboard_shortcuts 500ms). In scripts can also be used to turn on or off the overlay manually (keyboard_shortcuts on)</t>
   </si>
   <si>
     <t>change the key depending on the pad and play the current cue point</t>
@@ -12377,8 +12377,8 @@
   </si>
   <si>
     <t>assign this deck to the left of the crossfader: "deck 3 leftcross"
-      "deck 3 leftcross 'only'" to assign only deck 3 to left of the crossfader
-      "leftcross 'none'" to disable the left crossfader</t>
+"deck 3 leftcross 'only'" to assign only deck 3 to left of the crossfader
+"leftcross 'none'" to disable the left crossfader</t>
   </si>
   <si>
     <t>select this deck to be the left deck: "deck 3 leftdeck" or "leftdeck +1"</t>
@@ -12397,9 +12397,9 @@
   </si>
   <si>
     <t>Activate or deactivate the linein on this deck.
-      You can also specify a linein number to assign another linein: "deck 1 linein 2 on"
-      Or you can assign the microphone or aux input: "deck 3 linein 'mic' on" or "deck 3 linein 'aux' on"
-      If you don't want the line in to become the master deck automatically, you can use "deck 3 linein 'trs'"</t>
+You can also specify a linein number to assign another linein: "deck 1 linein 2 on"
+Or you can assign the microphone or aux input: "deck 3 linein 'mic' on" or "deck 3 linein 'aux' on"
+If you don't want the line in to become the master deck automatically, you can use "deck 3 linein 'trs'"</t>
   </si>
   <si>
     <t>record the linein input on this deck.</t>
@@ -12421,7 +12421,7 @@
   </si>
   <si>
     <t>return true when a new song becomes audible for the specified duration. Can be delayed using the second parameter.
-      'load_pulse_active 1000ms 5000ms' will return true for 1 second, 5 seconds after a new song becomes audible</t>
+'load_pulse_active 1000ms 5000ms' will return true for 1 second, 5 seconds after a new song becomes audible</t>
   </si>
   <si>
     <t>load a new skin. Use syntax " load_skin ':newvariation' " to load a different variation inside the same skin file.</t>
@@ -12449,8 +12449,8 @@
   </si>
   <si>
     <t>use the jogwheel to adjust the loop.
-      loop_adjust 'move', loop_adjust 'out', loop_adjust 'in' activate a specific loop adjust mode
-      loop_adjust -1, loop_adjust +1 emulate moving the jog when loop adjust is active</t>
+loop_adjust 'move', loop_adjust 'out', loop_adjust 'in' activate a specific loop adjust mode
+loop_adjust -1, loop_adjust +1 emulate moving the jog when loop adjust is active</t>
   </si>
   <si>
     <t>When loop back mode is enabled, starting a loop sets the end point of the loop, looping what you just heard. When disabled, starting a loop sets the start point of the loop.</t>
@@ -12460,8 +12460,8 @@
   </si>
   <si>
     <t>query or set the color of a saved loop
-      Query example: loop_color 1
-      Set example: loop_color 1 'yellow'</t>
+Query example: loop_color 1
+Set example: loop_color 1 'yellow'</t>
   </si>
   <si>
     <t>'loop_delete 1' Delete the saved loop in slot 1</t>
@@ -12483,11 +12483,11 @@
   </si>
   <si>
     <t>'loop_load 1' Load the saved loop from slot 1
-      'loop_load "myloop"' Load saved loop named "myloop"</t>
+'loop_load "myloop"' Load saved loop named "myloop"</t>
   </si>
   <si>
     <t>'loop_load_prepare 1' Activate/Deactivate the saved loop in slot 1 without jumping to the start point
-      'loop_load_prepare "myloop"' Activate/Deactivate stored loop named "myloop" without jumping to the start point</t>
+'loop_load_prepare "myloop"' Activate/Deactivate stored loop named "myloop" without jumping to the start point</t>
   </si>
   <si>
     <t>move the loop without changing its length. 'loop_move +10ms' set the distance in ms, 'loop_move +2' set the distance in beats, 'loop_move +50%' set the distance in percentage of the actual length.</t>
@@ -12512,14 +12512,14 @@
   </si>
   <si>
     <t>"loop_roll 0.25" for 1/4th beat loop roll
-      "loop_roll video" to toggle video loop roll on or off</t>
+"loop_roll video" to toggle video loop roll on or off</t>
   </si>
   <si>
     <t>If loop roll mode is active, when the loop exits, the song continues from the position it should have been if no looping had been done</t>
   </si>
   <si>
     <t>'loop_save 1' Save current loop in saved loop slot 1
-      'loop_save "myloop"' Save current loop and name it "myloop"</t>
+'loop_save "myloop"' Save current loop and name it "myloop"</t>
   </si>
   <si>
     <t>set the loop size (or default loop size if no loop is active). If no parameter is provided, a popup list of loop values to choose from will be displayed.</t>
@@ -12559,7 +12559,7 @@
   </si>
   <si>
     <t>maximize the application to maximized, full screen, or back to windowed.
-      A specific mode can be selected using "maximize 'windowed'", "maximize 'maximized'" or "maximize 'fullscreen'"</t>
+A specific mode can be selected using "maximize 'windowed'", "maximize 'maximized'" or "maximize 'fullscreen'"</t>
   </si>
   <si>
     <t>display a menu on the controller's screen, that allows to change the behaviour of the menu_buttons. you can navigate through the menu using the browser_scroll action'.</t>
@@ -12578,8 +12578,8 @@
   </si>
   <si>
     <t>Lower the volume of all decks while active and activates microphone
-      Use 'mic_talkover while_pressed' to only activate mic as long as button is held
-      Use 'mic_talkover 20% 1000ms' to lower deck volumes to 20% and fade to the volume in 1 second. (Defaults are 30% and 400ms)</t>
+Use 'mic_talkover while_pressed' to only activate mic as long as button is held
+Use 'mic_talkover 20% 1000ms' to lower deck volumes to 20% and fade to the volume in 1 second. (Defaults are 30% and 400ms)</t>
   </si>
   <si>
     <t>Set the volume of the microphone</t>
@@ -12598,7 +12598,7 @@
   </si>
   <si>
     <t>automatically mix to the next deck, then stop the current track and load a new song if something is available in the playlist or sidelist
-      by default this will to a tempo mix and sync bpm if the bpm is in range. You can add 'nosync' to mix without tempo synchronization. 'mix_and_load_next nosync'</t>
+by default this will to a tempo mix and sync bpm if the bpm is in range. You can add 'nosync' to mix without tempo synchronization. 'mix_and_load_next nosync'</t>
   </si>
   <si>
     <t>If the non-playing deck has a song loaded that has already been played, load a new one from the playlist. Then smoothly crossfade from the playing deck to the other, using beatsync if appropriate</t>
@@ -12608,11 +12608,11 @@
   </si>
   <si>
     <t>Smoothly crossfade from one side to the other, matching beats when the tempo of both songs is close together
-      When automix is off, fade speed can be adjusted: "mix_now 4000ms" or "mix_now 4bt"</t>
+When automix is off, fade speed can be adjusted: "mix_now 4000ms" or "mix_now 4bt"</t>
   </si>
   <si>
     <t>Smoothly crossfade from one side to the other
-      When automix is off, fade speed can be adjusted: "mix_now_nosync 4000ms" or "mix_now_nosync 4bt"</t>
+When automix is off, fade speed can be adjusted: "mix_now_nosync 4000ms" or "mix_now_nosync 4bt"</t>
   </si>
   <si>
     <t>When automix is active, mix to the song currently selected</t>
@@ -12643,7 +12643,7 @@
   </si>
   <si>
     <t>Open the selection menu for the named multibutton.
-      If a second text parameter is provided after the name, use it as the new action to load in the multibutton: 'multibutton_select "my_button" "goto_cue 2 &amp; play"'</t>
+If a second text parameter is provided after the name, use it as the new action to load in the multibutton: 'multibutton_select "my_button" "goto_cue 2 &amp; play"'</t>
   </si>
   <si>
     <t>Mute a specific deck</t>
@@ -12671,18 +12671,18 @@
   </si>
   <si>
     <t>Send a command to a DMX software over OS2L: 'os2l_button "blackout"', 'os2l_button "fog machine" while_pressed', etc.
-      If you want to specify a page, you can use 'os2l_button "mypage" "mybutton"'.
-      If the DMX software doesn't send feedback commands, os2l_button acts as a flash button (it sends 'on' when pressed, 'off' when released) - use 'os2l_button "mybutton" on' to not send commands on release.
-      If the DMX software sends feedback commands, os2l_button acts as a toggle button (it sends the opposite of the last feedback when pressed, nothing on release) - use 'os2l_button "mybutton" while_pressed' to send a command on release.</t>
+If you want to specify a page, you can use 'os2l_button "mypage" "mybutton"'.
+If the DMX software doesn't send feedback commands, os2l_button acts as a flash button (it sends 'on' when pressed, 'off' when released) - use 'os2l_button "mybutton" on' to not send commands on release.
+If the DMX software sends feedback commands, os2l_button acts as a toggle button (it sends the opposite of the last feedback when pressed, nothing on release) - use 'os2l_button "mybutton" while_pressed' to send a command on release.</t>
   </si>
   <si>
     <t>Send a numeric command to a DMX software over OS2L: 'os2l_cmd 42 on' or 'os2l_cmd 43 50%'</t>
   </si>
   <si>
     <t>similar to os2l_button, but sends 'on' to the DMX software only if the button was not active yet, and only if the deck is audible. (requires feedback from the DMX software)
-      when the deck is not audible, the scene will be queued and started when the deck becomes audible
-      os2l_scene "scene1"
-      os2l_scene "mypage" "myscene"</t>
+when the deck is not audible, the scene will be queued and started when the deck becomes audible
+os2l_scene "scene1"
+os2l_scene "mypage" "myscene"</t>
   </si>
   <si>
     <t>force this deck's video output on the video master</t>
@@ -12695,9 +12695,9 @@
   </si>
   <si>
     <t>returns the color of the ith pad as should be used on a controller button (changing the color for standby/active/pressed according to the controller's RGB capability).
-      if the pad is active and has no color, white is returned.
-      if the pad is inactive and has a color, and the controller support full RGB pads, a dimmed color is returned.
-      if the pad is active and has a color, and the controller doesn't support full RGB pads, the color is blinking.</t>
+if the pad is active and has no color, white is returned.
+if the pad is inactive and has a color, and the controller support full RGB pads, a dimmed color is returned.
+if the pad is active and has a color, and the controller doesn't support full RGB pads, the color is blinking.</t>
   </si>
   <si>
     <t>return the color of the ith pad (without auto-dim)</t>
@@ -12737,14 +12737,14 @@
   </si>
   <si>
     <t>Activate/deactivate named effect with a single key. Effect parameters can be specified as well.
-      'padfx "echo" 40% 90%' to start/stop the echo effect with first parameter at 40% and second parameter at 90%. When the effect is stopped, the parameters return to their original values.
-      'padfx "echo" 40% 1bt' to start/stop the echo effect with first parameter at 40% and length of 1 beat
-      'padfx "echo" 40% 90% smart_pressed' smart_pressed works as a toggle when pressing the button shortly, or as a temporary while holding the button pressed
-      'padfx "echo" 40% 90% "TRAIL:on"' after the sliders, it is possible to add strings to disable or enable switch parameters by defining their name, a colon and "on" to enable or "off" to disable
-      'padfx "echo out" 80% "solostem:vocal"' as the last parameter, you can add solostem:stemname to only let that stem be audible while applying the effect
-      'padfx "echo out" "mutestem:rhythm"' as the last parameter, you can add mutestem:stemname to mute that stem while applying the effect
-      'padfx "reverb" "stemfx:vocal"' as the last parameter, you can add stemfx:stemname to apply the effect only to that stem (other stems will continue playing normally)
-      stem names can be Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
+'padfx "echo" 40% 90%' to start/stop the echo effect with first parameter at 40% and second parameter at 90%. When the effect is stopped, the parameters return to their original values.
+'padfx "echo" 40% 1bt' to start/stop the echo effect with first parameter at 40% and length of 1 beat
+'padfx "echo" 40% 90% smart_pressed' smart_pressed works as a toggle when pressing the button shortly, or as a temporary while holding the button pressed
+'padfx "echo" 40% 90% "TRAIL:on"' after the sliders, it is possible to add strings to disable or enable switch parameters by defining their name, a colon and "on" to enable or "off" to disable
+'padfx "echo out" 80% "solostem:vocal"' as the last parameter, you can add solostem:stemname to only let that stem be audible while applying the effect
+'padfx "echo out" "mutestem:rhythm"' as the last parameter, you can add mutestem:stemname to mute that stem while applying the effect
+'padfx "reverb" "stemfx:vocal"' as the last parameter, you can add stemfx:stemname to apply the effect only to that stem (other stems will continue playing normally)
+ stem names can be Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
   </si>
   <si>
     <t>Same as padfx, but turns off the previous padfx before activating the current effect</t>
@@ -12763,19 +12763,19 @@
   </si>
   <si>
     <t>add the given value to the value of the calling slider/encoder/button
-      add the value of the first parameter with the value of the second parameter. Both parameters can be actions instead of values: 'param_add `get_var a` `get_var b`'</t>
+add the value of the first parameter with the value of the second parameter. Both parameters can be actions instead of values: 'param_add `get_var a` `get_var b`'</t>
   </si>
   <si>
     <t>check if the value of the calling slider/encoder/button is bigger than something: 'param_bigger 0 ? sampler loop 200% : sampler loop 50%'
-      compare value of the first parameter with the value of the second parameter. Both parameters can be actions instead of values: 'param_bigger pitch pitch_slider'</t>
+compare value of the first parameter with the value of the second parameter. Both parameters can be actions instead of values: 'param_bigger pitch pitch_slider'</t>
   </si>
   <si>
     <t>cast the value of the previous query action into a new type: 'pitch_range &amp; param_cast "percentage"'. Valid types are 'integer', 'float', 'percentage', 'ms', 'boolean', 'beats', 'text'.
-      casting to text can also optionally limit the number of characters: 'get_browsed_song "artist" &amp; param_cast "text" 5'
-      to format a number as text with a specific number of digits: 'get_bpm &amp; param_cast "000"'
-      param_cast 'int_trunc' : provides the integer part of a number without rounding to the nearest integer
-      param_cast 'frac' : provides the decimal part of a number.
-      param_cast 'relative' and param_cast 'absolute' : change the parameter to be a relative or absolute value</t>
+casting to text can also optionally limit the number of characters: 'get_browsed_song "artist" &amp; param_cast "text" 5'
+to format a number as text with a specific number of digits: 'get_bpm &amp; param_cast "000"'
+param_cast 'int_trunc' : provides the integer part of a number without rounding to the nearest integer
+param_cast 'frac' : provides the decimal part of a number.
+param_cast 'relative' and param_cast 'absolute' : change the parameter to be a relative or absolute value</t>
   </si>
   <si>
     <t>Check if the value of the calling action contains the string in the parameter.</t>
@@ -12785,7 +12785,7 @@
   </si>
   <si>
     <t>Check if the value of the calling slider/encoder/button is equal to something
-      To compare a string with the result of an action, use param_equal `action param` "string". For example: param_equal `get_browsed_song 'type'` "audio"</t>
+To compare a string with the result of an action, use param_equal `action param` "string". For example: param_equal `get_browsed_song 'type'` "audio"</t>
   </si>
   <si>
     <t>invert the value of the calling slider/encoder/button (1-x): 'param_invert &amp; pitch_slider'</t>
@@ -12795,14 +12795,14 @@
   </si>
   <si>
     <t>useful for smooth endless encoders, to make them discrete
-      Example: 'param_make_discrete 0.1 &amp; param_bigger 0 ? loop_move +100% : param_smaller 0 ? loop_move - 100%'</t>
+Example: 'param_make_discrete 0.1 &amp; param_bigger 0 ? loop_move +100% : param_smaller 0 ? loop_move - 100%'</t>
   </si>
   <si>
     <t>wrap the value of the calling slider/encoder if more than the given value</t>
   </si>
   <si>
     <t>multiply the value of the calling slider/encoder/button by the given value: 'param_multiply 300% &amp; effect slider'
-      The parameter can also be an action 'cue_pos 0 &amp; param_multiply "get_time total 1000"'</t>
+The parameter can also be an action 'cue_pos 0 &amp; param_multiply "get_time total 1000"'</t>
   </si>
   <si>
     <t>transform the value of the calling slider/encoder from a linear scale to a forth-and-back scale</t>
@@ -12839,10 +12839,10 @@
   </si>
   <si>
     <t>Set the pitch of the deck. Without parameters it can be assigned to sliders
-      Used with a number, it gives the position on the slider (and therefore account for pitch_range). ('pitch 0.25' set pitch at -10% if pitch range is 20%)
-      Used with a percent it gives an absolute position.  'pitch 112%' set pitch at +12%
-      Relative values are possible too. 'pitch +0.1%', 'pitch +0.1 bpm'
-      When used with 'bpm', the pitch is set to match the bpm. 'pitch 130 bpm' set pitch to match 130 bpm</t>
+Used with a number, it gives the position on the slider (and therefore account for pitch_range). ('pitch 0.25' set pitch at -10% if pitch range is 20%)
+Used with a percent it gives an absolute position.  'pitch 112%' set pitch at +12%
+Relative values are possible too. 'pitch +0.1%', 'pitch +0.1 bpm'
+When used with 'bpm', the pitch is set to match the bpm. 'pitch 130 bpm' set pitch to match 130 bpm</t>
   </si>
   <si>
     <t>slow down or speed up the song: 'pitch_bend +3%'. you can make the bend to increase slowly by specifying a second time parameter: 'pitch_bend +1% 500ms' will start at +1% and will double every 500ms.</t>
@@ -12851,20 +12851,20 @@
     <t>when Pitch Lock is on, moving the pitch slider on one deck will move the slider on the other deck to keep the sync</t>
   </si>
   <si>
-    <t>set the range for the pitch slider. 'pitch_range 12%' set the range from -12% to +12%.
-      'pitch_range +1' scrolls through the default pitch ranges. 'pitch_range "12,16,25" +1' scrolls through the provided list of pitch ranges.
-      'pitch_range +1 deck' changes the pitch range only for the specific deck</t>
+    <t>set the range for the pitch slider. 'pitch_range 12%' set the range from -12% to +12%. 
+'pitch_range +1' scrolls through the default pitch ranges. 'pitch_range "12,16,25" +1' scrolls through the provided list of pitch ranges.
+'pitch_range +1 deck' changes the pitch range only for the specific deck</t>
   </si>
   <si>
     <t>set the pitch of the deck, to be used by hardware controllers if you prefer the change to be relative to the software pitch position</t>
   </si>
   <si>
     <t>Slowly brings the pitch back to 0%. You can specify the speed in % per second (default uses the pitchResetSpeed option): 'pitch_reset 5%'
-      You can also specify the speed in ms or beats: 'pitch_reset 500ms' or 'pitch_reset 4bt'</t>
+You can also specify the speed in ms or beats: 'pitch_reset 500ms' or 'pitch_reset 4bt'</t>
   </si>
   <si>
     <t>Set pitch to 0% (normal playing speed)
-      Use 'pitch_zero "center"' on controllers that send a message when the pitch slider is at the center. This prevents unwanted behavior in gradual or relative mode.</t>
+Use 'pitch_zero "center"' on controllers that send a message when the pitch slider is at the center. This prevents unwanted behavior in gradual or relative mode.</t>
   </si>
   <si>
     <t>start the deck.</t>
@@ -12901,7 +12901,7 @@
   </si>
   <si>
     <t>Load the folder or playlist selected in the browser in the playlist.
-      Use "playlist_load 'append'" to add the selected folder to the playlist instead of replacing the existing playlist</t>
+Use "playlist_load 'append'" to add the selected folder to the playlist instead of replacing the existing playlist</t>
   </si>
   <si>
     <t>Load the first song in the automix list on the deck, without removing it from the list</t>
@@ -12938,7 +12938,7 @@
   </si>
   <si>
     <t>Set this deck to be used for the prelisten player
-      Example: "deck 1 prelisten_output", or to put it back to default: "prelisten_output 'auto'"</t>
+Example: "deck 1 prelisten_output", or to put it back to default: "prelisten_output 'auto'"</t>
   </si>
   <si>
     <t>move the position of the prelisten player</t>
@@ -12984,7 +12984,7 @@
   </si>
   <si>
     <t>reanalyze bpm etc... for the file loaded on the deck
-      'reanalyze multi' can be used to scan for multiple bpm's</t>
+'reanalyze multi' can be used to scan for multiple bpm's</t>
   </si>
   <si>
     <t>start recording the session.</t>
@@ -13024,7 +13024,7 @@
   </si>
   <si>
     <t>Repeat an action at a specified interval: 'repeat_start 'myrepeatname' 1000ms 5 &amp; browser_scroll +1' (first parameter is an identifier name, second parameter is the interval and the third optional parameter can specify a number of times to repeat). The first action will be performed after an interval has passed.
-      The interval can be specified in milliseconds, beats, or can be an action of itself. 'repeat_start 'myrepeatname' 1bt' or 'repeat_start 'myrepeatname `get_var a`'</t>
+The interval can be specified in milliseconds, beats, or can be an action of itself. 'repeat_start 'myrepeatname' 1bt' or 'repeat_start 'myrepeatname `get_var a`'</t>
   </si>
   <si>
     <t>Repeat an action at a specified interval: 'repeat_start_instant 'myrepeatname' 1000ms 5 &amp; browser_scroll +1' (first parameter is an identifier name, second parameter is the interval and the third optional parameter can specify a number of times to repeat). The first action will be performed immediately.</t>
@@ -13061,7 +13061,7 @@
   </si>
   <si>
     <t>get the color of the sample on this slot if it has one
-      The sample number takes the sampler_pad_page into account, so should be used in combination with sampler_pad</t>
+The sample number takes the sampler_pad_page into account, so should be used in combination with sampler_pad</t>
   </si>
   <si>
     <t>edit the given sample in the SampleEditor</t>
@@ -13092,19 +13092,19 @@
   </si>
   <si>
     <t>use 'sampler_loop -1' or 'sampler_loop +1' to change the length of a playing sample
-      use 'sampler_loop "current" 1' to set the sample to loop for 1 beat or 'sampler_loop 1 1' to set sample 1 to 1 beat loop
-      use 'sampler_loop "current" 0.5 "play" while_pressed' to loop the sample as long as long as the button is pressed for 0.5 beats</t>
+use 'sampler_loop "current" 1' to set the sample to loop for 1 beat or 'sampler_loop 1 1' to set sample 1 to 1 beat loop
+use 'sampler_loop "current" 0.5 "play" while_pressed' to loop the sample as long as long as the button is pressed for 0.5 beats</t>
   </si>
   <si>
     <t>set the global trigger mode for the sampler: "sampler_mode 'on/off'", 'hold', 'stutter' or 'unmute'
-      set trigger mode for a specific sample: "sampler_mode 1 'on/off'" to set sample 1 mode or "sampler_mode 1 +1" to cycle</t>
+set trigger mode for a specific sample: "sampler_mode 1 'on/off'" to set sample 1 mode or "sampler_mode 1 +1" to cycle</t>
   </si>
   <si>
     <t>mute/unmute this sample</t>
   </si>
   <si>
     <t>popup the sample menu.
-      can also be used with 'sampler_options "locked"' or 'sampler_options "stemswap"' to change the bank's settings.</t>
+can also be used with 'sampler_options "locked"' or 'sampler_options "stemswap"' to change the bank's settings.</t>
   </si>
   <si>
     <t>Select sampler output channel. 'deck master sampler_output', 'sampler_output "headphones"', 'deck 1 sampler_output', 'sampler_output "popup"'</t>
@@ -13120,14 +13120,14 @@
   </si>
   <si>
     <t>'sampler_pad_volume 1' sets the volume of the sample on the first pad
-      'sampler_pad_volume "siren"' sets the volume of the sample 'siren.vdjsample'.</t>
+'sampler_pad_volume "siren"' sets the volume of the sample 'siren.vdjsample'.</t>
   </si>
   <si>
     <t>Select if the sampler is sent to the headphones. (can be used with a slider or a % to specify the volume: 'sampler_pfl 75%')</t>
   </si>
   <si>
-    <t>play the selected sample. syntax 'sampler_play' plays the default sample.
-      'sampler_play 4' plays the fourth sample.</t>
+    <t>play the selected sample. syntax 'sampler_play' plays the default sample. 
+'sampler_play 4' plays the fourth sample.</t>
   </si>
   <si>
     <t>play the selected sample if it's not already playing, or stop it if it's already playing.</t>
@@ -13140,13 +13140,13 @@
   </si>
   <si>
     <t>On first press, start to record a new sample. On second press, stop to record
-      Use 'sampler_rec "mic"' to record a sample from microphone, or 'sampler_rec "master"' to record from master output
-      If the deck is on loop, a loop sample will immediately be created. If the deck is playing, it will record what's playing until the stop. If the deck is paused, it sets the 'entry point', and the second push will set the 'exit point' and use the deck's file between those two points.
-      'sampler_rec 1' or 'sampler_rec 1 "mic"' will store the sample in the first slot of the "Record" sample bank, so that it can be used immediately after recording</t>
+Use 'sampler_rec "mic"' to record a sample from microphone, or 'sampler_rec "master"' to record from master output
+If the deck is on loop, a loop sample will immediately be created. If the deck is playing, it will record what's playing until the stop. If the deck is paused, it sets the 'entry point', and the second push will set the 'exit point' and use the deck's file between those two points.
+'sampler_rec 1' or 'sampler_rec 1 "mic"' will store the sample in the first slot of the "Record" sample bank, so that it can be used immediately after recording</t>
   </si>
   <si>
     <t>delete a recording from the "Recordings" bank
-      "sampler_rec_delete 3" would delete the sample previously recorded using "sampler_rec 3"</t>
+"sampler_rec_delete 3" would delete the sample previously recorded using "sampler_rec 3"</t>
   </si>
   <si>
     <t>select which sample is the default sampler slot for that deck. syntax 'sampler select 5' selects the fifth sampler slot. 'sampler select +1' scrolls through the sampler slots. 'sampler select' open a popup menu to select the new default sampler slot.</t>
@@ -13165,8 +13165,8 @@
   </si>
   <si>
     <t>'sampler_volume' sets the volume of the sample that has the focus, on the selected deck.
-      'sampler_volume 1' sets the volume of the sample in slot 1 in the current bank.
-      'sampler_volume "siren"' sets the volume of the sample 'siren.vdjsample'.</t>
+'sampler_volume 1' sets the volume of the sample in slot 1 in the current bank.
+'sampler_volume "siren"' sets the volume of the sample 'siren.vdjsample'.</t>
   </si>
   <si>
     <t>'sampler_volume_master' sets the master volume of the sampler</t>
@@ -13176,7 +13176,7 @@
   </si>
   <si>
     <t>activate/deactivate sandbox mode.
-      in sandbox mode, the master output continues to play what it was playing without being affected by your actions, and you can move both decks to whatever position you want, in order to prelisten your upcomming mix.</t>
+in sandbox mode, the master output continues to play what it was playing without being affected by your actions, and you can move both decks to whatever position you want, in order to prelisten your upcomming mix.</t>
   </si>
   <si>
     <t>save your config changes now (usually changes are saved automatically when you close virtualdj)</t>
@@ -13186,19 +13186,19 @@
   </si>
   <si>
     <t>'saved_loop 1' Load the saved loop in slot 1 or set if it doesn't exist
-      'saved_loop "myloop"' Load saved loop named "myloop" or set if it doesn't exist</t>
+'saved_loop "myloop"' Load saved loop named "myloop" or set if it doesn't exist</t>
   </si>
   <si>
     <t>'saved_loop_autotrigger 1' Activate/Deactivate auto-trigger of loop when the play position arrives at the saved loop</t>
   </si>
   <si>
     <t>Show information about a saved loop based on the savedLoopDisplay config option.
-      Example: 'saved_loop_display 1'
-      Can also be used to modify the savedLoopDisplay option by using +1 or -1 as parameter: 'saved_loop_display +1'</t>
+Example: 'saved_loop_display 1'
+Can also be used to modify the savedLoopDisplay option by using +1 or -1 as parameter: 'saved_loop_display +1'</t>
   </si>
   <si>
     <t>'saved_loop_prepare 1' Activate/Deactivate the saved loop in slot 1 without jumping to the start point or set if it doesn't exist
-      'saved_loop_prepare "myloop"' Activate/Deactivate stored loop named "myloop" without jumping to the start point or set if it doesn't exist</t>
+'saved_loop_prepare "myloop"' Activate/Deactivate stored loop named "myloop" without jumping to the start point or set if it doesn't exist</t>
   </si>
   <si>
     <t>'scratch +120ms' to scratch 120ms forward.</t>
@@ -13232,7 +13232,7 @@
   </si>
   <si>
     <t>open a dialog to search which list contains a specific song
-      by default it searches for the song selected in the browser. Use "search_playlists deck" to search for the song loaded on the deck.</t>
+by default it searches for the song selected in the browser. Use "search_playlists deck" to search for the song loaded on the deck.</t>
   </si>
   <si>
     <t>move into the song while the button is pressed. 'seek +2' moves beat by beat, skipping 2 beats every 10ms. 'seek +420ms' moves from 420ms every 10ms. using skip with a beat number keep the song playing correctly while moving inside.</t>
@@ -13245,8 +13245,8 @@
   </si>
   <si>
     <t>set 'varname' 5		  sets variable varname to the value 5
-      set 'varname' 'var2'   sets variable varname to the value of variable var2
-      set 'varname' `play`  sets variable varname to the value of the action play</t>
+set 'varname' 'var2'   sets variable varname to the value of variable var2
+set 'varname' `play`  sets variable varname to the value of the action play</t>
   </si>
   <si>
     <t>set the bpm of the song to the set value: 'set_bpm 129.3', or relative to the actual value: 'set_bpm 50%'.</t>
@@ -13259,7 +13259,7 @@
   </si>
   <si>
     <t>use script or implicit variable to affect which deck the action is applied to
-      example: 'set_deck `get_var varname` &amp; play'</t>
+example: 'set_deck `get_var varname` &amp; play'</t>
   </si>
   <si>
     <t>moves the first beat to the current position, adjusting the beat-grid</t>
@@ -13275,19 +13275,19 @@
   </si>
   <si>
     <t>Move the specified mix point to the current position ("StartTempo", "EndTempo", "StartCut", "EndCut", "StartFade", "EndFade", "StartSound", "EndSound")
-      Example: set_mixpoint "StartTempo"</t>
+Example: set_mixpoint "StartTempo"</t>
   </si>
   <si>
     <t>set the value of the specified variable</t>
   </si>
   <si>
     <t>set_var_dialog 'varname'   opens a dialog to enter the value of varname
-      set_var_dialog 'varname' 'information text' opens a dialog to enter the value of varname, and shows the second parameter as informational text</t>
+set_var_dialog 'varname' 'information text' opens a dialog to enter the value of varname, and shows the second parameter as informational text</t>
   </si>
   <si>
     <t>read or write a specific setting (see config window for the list of all settings names)
-      Example: setting "jogSensitivityScratch" 80%
-      Example: setting "videoRandomTransition" on</t>
+Example: setting "jogSensitivityScratch" 80% 
+Example: setting "videoRandomTransition" on</t>
   </si>
   <si>
     <t>reset a setting to its default value</t>
@@ -13318,12 +13318,12 @@
   </si>
   <si>
     <t>Show/hide the specified split panel
-      Examples: "show_splitpanel 'sidelist'", "show_splitpanel 'sideview' on", "show_splitpanel 'sidelist' 50%"</t>
+Examples: "show_splitpanel 'sidelist'", "show_splitpanel 'sideview' on", "show_splitpanel 'sidelist' 50%"</t>
   </si>
   <si>
     <t>Show text on controller display. (If your controller uses get_display for the displays)
-      "show_text 'Line 1|Line 2' 3000ms" will show 2 lines of text for 3 seconds (time optional, | separates lines)
-      "show_text '$myvar$'" shows the contents of the variable $myvar</t>
+"show_text 'Line 1|Line 2' 3000ms" will show 2 lines of text for 3 seconds (time optional, | separates lines)
+"show_text '$myvar$'" shows the contents of the variable $myvar</t>
   </si>
   <si>
     <t>on skin with multiple windows, show or hide the specified window</t>
@@ -13336,7 +13336,7 @@
   </si>
   <si>
     <t>Load the folder or playlist selected in the browser in the sidelist
-      Use "sidelist_load 'append'" to add the selected folder to the sidelist instead of replacing the existing sidelist</t>
+Use "sidelist_load 'append'" to add the selected folder to the sidelist instead of replacing the existing sidelist</t>
   </si>
   <si>
     <t>load the first song from the sidelist.</t>
@@ -13352,7 +13352,7 @@
   </si>
   <si>
     <t>Show a specific folder in the sideview. Available sideviews are automix,sidelist,karaoke,sampler,clone
-      Use 'sideview +1' or 'sideview -1' to scroll between available sideviews</t>
+Use 'sideview +1' or 'sideview -1' to scroll between available sideviews</t>
   </si>
   <si>
     <t>show the context menu to add or remove folders shortcuts to the sideView</t>
@@ -13380,10 +13380,10 @@
   </si>
   <si>
     <t>"slicer 1" to "slicer 8" for 8 slicer buttons
-      "slicer 1 'hold'" to hold the current position on first activate
-      "slicer 'length' +1" to increase length
-      "slicer 'step' +1" to increase step size
-      "slicer video" to toggle video slicer on or off</t>
+"slicer 1 'hold'" to hold the current position on first activate
+"slicer 'length' +1" to increase length
+"slicer 'step' +1" to increase step size
+"slicer video" to toggle video slicer on or off</t>
   </si>
   <si>
     <t>activate or deactivate a global slip mode, that will save the position on "slip on" and resume where it should have been if untouched on "slip off", letting you do any scratch/loop/effect/etc in between</t>
@@ -13426,8 +13426,8 @@
   </si>
   <si>
     <t>Change the amount of a stem in the mix. Stem names are: "HiHat", "Vocal", "Instru", "Bass", "Kick", or you can use aggregate stems: "Melody" (Instru+Bass), "Rhythm" (HiHat+Kick), "MeloVocal" (Melody/Vocal), "MeloRhythm" (Melody/Rhythm).
-      To get kill on left side and isolate on right side of the slider, you can use "FullVocal", "FullMelo" and "FullRhythm"
-      To map a slider to always control the equalizer, regardless of EQ mode, you can use "stem FreqHi", "stem FreqMid", and "stem FreqLo"</t>
+To get kill on left side and isolate on right side of the slider, you can use "FullVocal", "FullMelo" and "FullRhythm"
+To map a slider to always control the equalizer, regardless of EQ mode, you can use "stem FreqHi", "stem FreqMid", and "stem FreqLo"</t>
   </si>
   <si>
     <t>get the default color of a specific stem</t>
@@ -13437,14 +13437,14 @@
   </si>
   <si>
     <t>change the amount of a stem in the mix. Stem names are: "HiHat", "Vocal", "Instru", "Bass", "Kick", or you can use aggregate stems: "Melody" (Instru+Bass), "Rhythm" (HiHat+Kick), "MeloVocal" (Melody/Vocal).
-      stem_volume has the max volume at 100% for use on sliders, whereas stem has defaults at 50%, and isolates above 50% for use on knobs</t>
+stem_volume has the max volume at 100% for use on sliders, whereas stem has defaults at 50%, and isolates above 50% for use on knobs</t>
   </si>
   <si>
     <t>Control how much the fast stems separation algorithm will allow bleeding. The action affects one of the four bleeding values (MuteVocal, MuteInstru, OnlyVocal, OnlyInstru) depending on what is currently muted or isolated on the deck. (NOTE: this does nothing on the regular HiQuality algorithm)</t>
   </si>
   <si>
     <t>'stems_split' will duplicate deck 1 to deck 3 or deck 2 to 4, with the vocals playing on the first deck and the instruments on the other deck
-      'stems_split vocal target' will duplicate the opposite deck to the deck stems_split was called from</t>
+'stems_split vocal target' will duplicate the opposite deck to the deck stems_split was called from</t>
   </si>
   <si>
     <t>After using stems_split, you can use stems_split_unlink to have the decks behave independently, allowing to scratch the vocals without affecting the instrumental for example</t>
@@ -13472,7 +13472,7 @@
   </si>
   <si>
     <t>Select if the deck is controlled by a timecode signal.
-      (note: You can use 'timecode_active x' where x is the turntable number, to assign the same turntable to control several decks at once: 'deck 1 timecode_active 1 on &amp; deck 2 timecode_active 1 on')</t>
+(note: You can use 'timecode_active x' where x is the turntable number, to assign the same turntable to control several decks at once: 'deck 1 timecode_active 1 on &amp; deck 2 timecode_active 1 on')</t>
   </si>
   <si>
     <t>Use the timecode turntable as linein input</t>
@@ -13521,11 +13521,11 @@
   </si>
   <si>
     <t>'var "my_var" ? my_action1 : my_action2'. execute my_action1 if my_var is true (non zero), execute my_action2 otherwise.
-      You can also compare var with a specific value: 'var "my_var" 1 ? my_action1 : my_action2' execute my_action1 is my_var is 1, or my_action2 otherwise</t>
+You can also compare var with a specific value: 'var "my_var" 1 ? my_action1 : my_action2' execute my_action1 is my_var is 1, or my_action2 otherwise</t>
   </si>
   <si>
     <t>syntax: 'var_equal "my_var" 42 ? my_action1 : my_action2'. execute my_action1 if my_var equals 42, execute my_action2 otherwise.
-      syntax: 'var_equal "this_var" "that_var" ? action1 : action2' execute action1 if this_var equals that_var, execute action2 otherwise</t>
+syntax: 'var_equal "this_var" "that_var" ? action1 : action2' execute action1 if this_var equals that_var, execute action2 otherwise</t>
   </si>
   <si>
     <t>syntax: 'var_greater "my_var" 42 ? my_action1 : my_action2'. execute my_action1 if my_var is greater than 42, execute my_action2 otherwise.</t>
@@ -13553,8 +13553,8 @@
   </si>
   <si>
     <t>set a delay between video or audio to synchronize output (in milliseconds)
-      Use "video_delay +100ms" or "video_delay -100ms" to increase or decrease the delay, or "video_delay 0ms" to reset it
-      Use "video_delay +100" or "video_delay -100" to set it to exactly the specified amount</t>
+Use "video_delay +100ms" or "video_delay -100ms" to increase or decrease the delay, or "video_delay 0ms" to reset it
+Use "video_delay +100" or "video_delay -100" to set it to exactly the specified amount</t>
   </si>
   <si>
     <t>activate/deactivate fade-to-black on volume sliders</t>
@@ -13578,9 +13578,9 @@
     <t>fade-to-black independent slider for the left or right video deck</t>
   </si>
   <si>
-    <t>Show menu to select on which monitor to open the video output.
-      You can also specify a specific output: "video_output 1" to open video output on the first monitor
-      To just show or hide the output use "video_output on" or "video_output off". To toggle output, use "video_output ? video_output off : video_output on"</t>
+    <t>Show menu to select on which monitor to open the video output. 
+You can also specify a specific output: "video_output 1" to open video output on the first monitor
+To just show or hide the output use "video_output on" or "video_output off". To toggle output, use "video_output ? video_output off : video_output on"</t>
   </si>
   <si>
     <t>activate video if not active yet, and open the shader selection dialog if shader is the source</t>
@@ -13590,9 +13590,9 @@
   </si>
   <si>
     <t>Launch a transition from one video deck to the other.
-      You can specify the duration of the transition: 'video_transition 1000ms'
-      You can specify the direction of the transition: 'video_transition "left"' or 'video_transition "left" 1000ms'
-      You can specify the location to transition to using a percentage (or assign it to a slider): 'video_transition 50%' or 'video_transition 1000ms 50%'</t>
+You can specify the duration of the transition: 'video_transition 1000ms'
+You can specify the direction of the transition: 'video_transition "left"' or 'video_transition "left" 1000ms'
+You can specify the location to transition to using a percentage (or assign it to a slider): 'video_transition 50%' or 'video_transition 1000ms 50%'</t>
   </si>
   <si>
     <t>push the n-th button of the video transition plugin</t>
